--- a/src/assets/template/4-Mau_Tho_Thi_Quyen.xlsx
+++ b/src/assets/template/4-Mau_Tho_Thi_Quyen.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Project\cocvuong-react\src\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Project\cocvuong.com\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B973A6E9-FEF0-4A39-93EF-77109CE3A998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42304BB7-42D7-479F-9E73-A50D61529E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30950" yWindow="-320" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="15" r:id="rId1"/>
+    <sheet name="quocgia" sheetId="16" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">quocgia!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="552">
   <si>
     <t>Hoàng Minh Tiến</t>
   </si>
@@ -42,9 +46,6 @@
     <t xml:space="preserve"> STT</t>
   </si>
   <si>
-    <t xml:space="preserve"> KHỞI QUYỀN NỮ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nguyễn Hoàng Thanh Tâm </t>
   </si>
   <si>
@@ -81,9 +82,6 @@
     <t>SS170151</t>
   </si>
   <si>
-    <t xml:space="preserve"> NHẬP MÔN QUYỀN NỮ</t>
-  </si>
-  <si>
     <t>Huỳnh Lê Thanh Trúc</t>
   </si>
   <si>
@@ -117,30 +115,15 @@
     <t>HỌ VÀ TÊN</t>
   </si>
   <si>
-    <t xml:space="preserve"> KHỞI QUYỀN ĐỒNG ĐỘI NỮ</t>
-  </si>
-  <si>
     <t>Võ Thị Diệu Thảo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Trần Thị Ngọc Như</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lê Thị Linh</t>
-  </si>
-  <si>
     <t>SS181087</t>
   </si>
   <si>
-    <t xml:space="preserve"> Võ Bùi Hải Nguyên</t>
-  </si>
-  <si>
     <t>SS181088</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nguyễn Đỗ Thu Thủy</t>
-  </si>
-  <si>
     <t>SA160122</t>
   </si>
   <si>
@@ -150,63 +133,36 @@
     <t>SS170787</t>
   </si>
   <si>
-    <t xml:space="preserve"> Đỗ Thiên Nga</t>
-  </si>
-  <si>
     <t>SS171294</t>
   </si>
   <si>
-    <t xml:space="preserve"> Vũ Thị Như Quỳnh</t>
-  </si>
-  <si>
     <t>SE171667</t>
   </si>
   <si>
-    <t xml:space="preserve"> ĐA LUYỆN NAM</t>
-  </si>
-  <si>
     <t>Đỗ Minh Hiếu</t>
   </si>
   <si>
     <t>SE173419</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nguyễn Bá Ất</t>
-  </si>
-  <si>
     <t>SE170089</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ngô Văn Tiến</t>
-  </si>
-  <si>
     <t>SE170369</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ngô Xuân Sơn</t>
-  </si>
-  <si>
     <t>SE170429</t>
   </si>
   <si>
     <t>SE172436</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bùi Hoàng Tùng</t>
-  </si>
-  <si>
     <t>SE172170</t>
   </si>
   <si>
-    <t xml:space="preserve"> Phạm Anh Huy</t>
-  </si>
-  <si>
     <t>SE172047</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hoàng Ngọc Dũng</t>
-  </si>
-  <si>
     <t>SE171014</t>
   </si>
   <si>
@@ -216,21 +172,12 @@
     <t>SE173289</t>
   </si>
   <si>
-    <t xml:space="preserve"> Phùng Hữu Danh Khoa</t>
-  </si>
-  <si>
     <t>SE170133</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lưu Huỳnh Giang</t>
-  </si>
-  <si>
     <t>SE171770</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lôi Bảo Thông</t>
-  </si>
-  <si>
     <t>SE171951</t>
   </si>
   <si>
@@ -238,13 +185,1513 @@
   </si>
   <si>
     <t>NỘI DUNG</t>
+  </si>
+  <si>
+    <t>QUỐC GIA</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Tên Tiếng Anh</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Saint Kitts &amp; Nevis</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>St. Vincent &amp; Grenadines</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>U.S. Virgin Islands</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>NHẬP MÔN QUYỀN NỮ</t>
+  </si>
+  <si>
+    <t>KHỞI QUYỀN ĐỒNG ĐỘI NỮ</t>
+  </si>
+  <si>
+    <t>ĐA LUYỆN NAM</t>
+  </si>
+  <si>
+    <t>KHỞI QUYỀN NỮ</t>
+  </si>
+  <si>
+    <t>Võ Bùi Hải Nguyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Đỗ Thu Thủy</t>
+  </si>
+  <si>
+    <t>Đỗ Thiên Nga</t>
+  </si>
+  <si>
+    <t>Vũ Thị Như Quỳnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Ất</t>
+  </si>
+  <si>
+    <t>Ngô Văn Tiến</t>
+  </si>
+  <si>
+    <t>Ngô Xuân Sơn</t>
+  </si>
+  <si>
+    <t>Bùi Hoàng Tùng</t>
+  </si>
+  <si>
+    <t>Phạm Anh Huy</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Dũng</t>
+  </si>
+  <si>
+    <t>Phùng Hữu Danh Khoa</t>
+  </si>
+  <si>
+    <t>Lưu Huỳnh Giang</t>
+  </si>
+  <si>
+    <t>Lôi Bảo Thông</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +1717,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -325,12 +1780,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +2076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEBD337-8651-4AF1-8997-6050B426D040}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,512 +2085,3337 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>538</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>538</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>538</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>538</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>538</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>538</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>536</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>536</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>536</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>536</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
       <c r="B22" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>536</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>540</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>536</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>536</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>541</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>536</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>542</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>543</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>544</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>4</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>545</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>5</v>
+      </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>546</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>5</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>57</v>
+        <v>547</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>5</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>59</v>
+        <v>548</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>6</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>549</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>6</v>
+      </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
+        <v>550</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>551</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A4E31E4E-8C9A-46CC-A22B-F4E6CD6A8E49}">
+          <x14:formula1>
+            <xm:f>quocgia!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E38</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310BF8D4-9E19-4AFB-BB4E-16ACB07E4704}">
+  <dimension ref="A1:C241"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>187</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>189</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>191</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>193</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>194</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>195</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>196</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>197</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>198</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>199</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>200</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>201</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>202</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>203</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>204</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>205</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>206</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>207</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>208</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>209</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>210</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>211</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>212</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>213</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>214</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>215</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>216</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>217</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>218</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>219</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>220</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>221</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>222</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>223</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>224</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>225</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>226</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>227</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>228</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>229</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>230</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>231</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>232</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>233</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>234</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>235</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>236</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>237</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>238</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>239</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>240</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/template/4-Mau_Tho_Thi_Quyen.xlsx
+++ b/src/assets/template/4-Mau_Tho_Thi_Quyen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Project\cocvuong.com\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42304BB7-42D7-479F-9E73-A50D61529E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE7DEA-8B3C-47E4-94B2-0C31A01C960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,158 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="552">
-  <si>
-    <t>Hoàng Minh Tiến</t>
-  </si>
-  <si>
-    <t>Phạm Thanh Hiền</t>
-  </si>
-  <si>
-    <t>Trần Thị Minh Thư</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Thị Kim Oanh </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="510">
   <si>
     <t xml:space="preserve"> STT</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Hoàng Thanh Tâm </t>
-  </si>
-  <si>
-    <t>SS180955</t>
-  </si>
-  <si>
-    <t>SE170031</t>
-  </si>
-  <si>
-    <t>Lê Thị Linh</t>
-  </si>
-  <si>
-    <t>SS170837</t>
-  </si>
-  <si>
-    <t>Phan Hoàng Bảo Trân</t>
-  </si>
-  <si>
-    <t>SA170011</t>
-  </si>
-  <si>
-    <t>SS170195</t>
-  </si>
-  <si>
-    <t>Trần Thị Ngọc Như</t>
-  </si>
-  <si>
-    <t>SS171039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võ Thị Diệu Thảo </t>
-  </si>
-  <si>
-    <t>SS170151</t>
-  </si>
-  <si>
-    <t>Huỳnh Lê Thanh Trúc</t>
-  </si>
-  <si>
-    <t>SE170418</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Uyên</t>
-  </si>
-  <si>
-    <t>SE170498</t>
-  </si>
-  <si>
-    <t>Trương Thị Mai Vy</t>
-  </si>
-  <si>
-    <t>SS171119</t>
-  </si>
-  <si>
-    <t>Phan Anh Thư</t>
-  </si>
-  <si>
-    <t>SS171055</t>
-  </si>
-  <si>
-    <t>Ngô Phương Diễm Quỳnh</t>
-  </si>
-  <si>
-    <t>SS170753</t>
-  </si>
-  <si>
     <t>HỌ VÀ TÊN</t>
   </si>
   <si>
-    <t>Võ Thị Diệu Thảo</t>
-  </si>
-  <si>
-    <t>SS181087</t>
-  </si>
-  <si>
-    <t>SS181088</t>
-  </si>
-  <si>
-    <t>SA160122</t>
-  </si>
-  <si>
-    <t>Trần Minh Bảo Thư</t>
-  </si>
-  <si>
-    <t>SS170787</t>
-  </si>
-  <si>
-    <t>SS171294</t>
-  </si>
-  <si>
-    <t>SE171667</t>
-  </si>
-  <si>
-    <t>Đỗ Minh Hiếu</t>
-  </si>
-  <si>
-    <t>SE173419</t>
-  </si>
-  <si>
-    <t>SE170089</t>
-  </si>
-  <si>
-    <t>SE170369</t>
-  </si>
-  <si>
-    <t>SE170429</t>
-  </si>
-  <si>
-    <t>SE172436</t>
-  </si>
-  <si>
-    <t>SE172170</t>
-  </si>
-  <si>
-    <t>SE172047</t>
-  </si>
-  <si>
-    <t>SE171014</t>
-  </si>
-  <si>
-    <t>Trần Lê Chí Bảo</t>
-  </si>
-  <si>
-    <t>SE173289</t>
-  </si>
-  <si>
-    <t>SE170133</t>
-  </si>
-  <si>
-    <t>SE171770</t>
-  </si>
-  <si>
-    <t>SE171951</t>
-  </si>
-  <si>
     <t>MSSV/ĐƠN VỊ</t>
   </si>
   <si>
@@ -1642,56 +1498,74 @@
     <t>KHỞI QUYỀN ĐỒNG ĐỘI NỮ</t>
   </si>
   <si>
-    <t>ĐA LUYỆN NAM</t>
-  </si>
-  <si>
     <t>KHỞI QUYỀN NỮ</t>
   </si>
   <si>
-    <t>Võ Bùi Hải Nguyên</t>
-  </si>
-  <si>
-    <t>Nguyễn Đỗ Thu Thủy</t>
-  </si>
-  <si>
-    <t>Đỗ Thiên Nga</t>
-  </si>
-  <si>
-    <t>Vũ Thị Như Quỳnh</t>
-  </si>
-  <si>
-    <t>Nguyễn Bá Ất</t>
-  </si>
-  <si>
-    <t>Ngô Văn Tiến</t>
-  </si>
-  <si>
-    <t>Ngô Xuân Sơn</t>
-  </si>
-  <si>
-    <t>Bùi Hoàng Tùng</t>
-  </si>
-  <si>
-    <t>Phạm Anh Huy</t>
-  </si>
-  <si>
-    <t>Hoàng Ngọc Dũng</t>
-  </si>
-  <si>
-    <t>Phùng Hữu Danh Khoa</t>
-  </si>
-  <si>
-    <t>Lưu Huỳnh Giang</t>
-  </si>
-  <si>
-    <t>Lôi Bảo Thông</t>
+    <t>Vận động viên 1</t>
+  </si>
+  <si>
+    <t>Vận động viên 2</t>
+  </si>
+  <si>
+    <t>Vận động viên 3</t>
+  </si>
+  <si>
+    <t>Vận động viên 4</t>
+  </si>
+  <si>
+    <t>Vận động viên 5</t>
+  </si>
+  <si>
+    <t>Vận động viên 6</t>
+  </si>
+  <si>
+    <t>Vận động viên 7</t>
+  </si>
+  <si>
+    <t>Vận động viên 8</t>
+  </si>
+  <si>
+    <t>Vận động viên 9</t>
+  </si>
+  <si>
+    <t>Vận động viên 10</t>
+  </si>
+  <si>
+    <t>Đơn vị 1</t>
+  </si>
+  <si>
+    <t>Đơn vị 2</t>
+  </si>
+  <si>
+    <t>Đơn vị 3</t>
+  </si>
+  <si>
+    <t>Đơn vị 4</t>
+  </si>
+  <si>
+    <t>Đơn vị 5</t>
+  </si>
+  <si>
+    <t>Đơn vị 6</t>
+  </si>
+  <si>
+    <t>Đơn vị 7</t>
+  </si>
+  <si>
+    <t>Đơn vị 8</t>
+  </si>
+  <si>
+    <t>Đơn vị 9</t>
+  </si>
+  <si>
+    <t>Đơn vị 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1726,6 +1600,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2076,7 +1956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEBD337-8651-4AF1-8997-6050B426D040}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2090,19 +1970,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2110,16 +1990,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2127,16 +2007,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>491</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2144,16 +2024,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>492</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2161,589 +2041,131 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>493</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>494</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>495</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>496</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>497</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>498</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>508</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>499</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>5</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>5</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>6</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>6</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>6</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" t="s">
-        <v>53</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A4E31E4E-8C9A-46CC-A22B-F4E6CD6A8E49}">
           <x14:formula1>
             <xm:f>quocgia!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E38</xm:sqref>
+          <xm:sqref>E2:E11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2755,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310BF8D4-9E19-4AFB-BB4E-16ACB07E4704}">
   <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,10 +2190,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2779,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2790,10 +2212,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2801,10 +2223,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2812,10 +2234,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2823,10 +2245,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2834,10 +2256,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2845,10 +2267,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2856,10 +2278,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2867,10 +2289,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2878,10 +2300,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2889,10 +2311,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2900,10 +2322,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2911,10 +2333,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2922,10 +2344,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2933,10 +2355,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,10 +2366,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2955,10 +2377,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2966,10 +2388,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2977,10 +2399,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2988,10 +2410,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2999,10 +2421,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3010,10 +2432,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3021,10 +2443,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3032,10 +2454,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3043,10 +2465,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3054,10 +2476,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3065,10 +2487,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3076,10 +2498,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,10 +2509,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3098,10 +2520,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3109,10 +2531,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3120,10 +2542,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3131,10 +2553,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3142,10 +2564,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3153,10 +2575,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3164,10 +2586,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3175,10 +2597,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3186,10 +2608,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3197,10 +2619,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3208,10 +2630,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3219,10 +2641,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3230,10 +2652,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3241,10 +2663,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3252,10 +2674,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3263,10 +2685,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3274,10 +2696,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3285,10 +2707,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3296,10 +2718,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3307,10 +2729,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3318,10 +2740,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3329,10 +2751,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3340,10 +2762,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3351,10 +2773,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3362,10 +2784,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3373,10 +2795,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3384,10 +2806,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,10 +2817,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3406,10 +2828,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3417,10 +2839,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3428,10 +2850,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3439,10 +2861,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,10 +2872,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,10 +2883,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,10 +2894,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,10 +2905,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,10 +2916,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,10 +2927,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,10 +2938,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,10 +2949,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,10 +2960,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,10 +2971,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,10 +2982,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,10 +2993,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,10 +3004,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,10 +3015,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,10 +3026,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3615,10 +3037,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,10 +3048,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,10 +3059,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3648,10 +3070,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3659,10 +3081,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3670,10 +3092,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3681,10 +3103,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3692,10 +3114,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,10 +3125,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3714,10 +3136,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3725,10 +3147,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3736,10 +3158,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3747,10 +3169,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3758,10 +3180,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3769,10 +3191,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3780,10 +3202,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3791,10 +3213,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3802,10 +3224,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3813,10 +3235,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3824,10 +3246,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3835,10 +3257,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3846,10 +3268,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3857,10 +3279,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3868,10 +3290,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3879,10 +3301,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3890,10 +3312,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3901,10 +3323,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3912,10 +3334,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3923,10 +3345,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3934,10 +3356,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3945,10 +3367,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3956,10 +3378,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3967,10 +3389,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3978,10 +3400,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3989,10 +3411,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -4000,10 +3422,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -4011,10 +3433,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4022,10 +3444,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4033,10 +3455,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4044,10 +3466,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -4055,10 +3477,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4066,10 +3488,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4077,10 +3499,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -4088,10 +3510,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4099,10 +3521,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -4110,10 +3532,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -4121,10 +3543,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4132,10 +3554,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -4143,10 +3565,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -4154,10 +3576,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -4165,10 +3587,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -4176,10 +3598,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -4187,10 +3609,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -4198,10 +3620,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -4209,10 +3631,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -4220,10 +3642,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -4231,10 +3653,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -4242,10 +3664,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -4253,10 +3675,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -4264,10 +3686,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -4275,10 +3697,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -4286,10 +3708,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -4297,10 +3719,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -4308,10 +3730,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -4319,10 +3741,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -4330,10 +3752,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -4341,10 +3763,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4352,10 +3774,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4363,10 +3785,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4374,10 +3796,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4385,10 +3807,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -4396,10 +3818,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -4407,10 +3829,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -4418,10 +3840,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -4429,10 +3851,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -4440,10 +3862,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -4451,10 +3873,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -4462,10 +3884,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -4473,10 +3895,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -4484,10 +3906,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -4495,10 +3917,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -4506,10 +3928,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -4517,10 +3939,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4528,10 +3950,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4539,10 +3961,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -4550,10 +3972,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -4561,10 +3983,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -4572,10 +3994,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4583,10 +4005,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -4594,10 +4016,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -4605,10 +4027,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -4616,10 +4038,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -4627,10 +4049,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4638,10 +4060,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -4649,10 +4071,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4660,10 +4082,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4671,10 +4093,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4682,10 +4104,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4693,10 +4115,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4704,10 +4126,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -4715,10 +4137,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4726,10 +4148,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4737,10 +4159,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4748,10 +4170,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4759,10 +4181,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4770,10 +4192,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4781,10 +4203,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4792,10 +4214,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4803,10 +4225,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4814,10 +4236,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>427</v>
+        <v>379</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4825,10 +4247,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4836,10 +4258,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4847,10 +4269,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4858,10 +4280,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4869,10 +4291,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -4880,10 +4302,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -4891,10 +4313,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -4902,10 +4324,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4913,10 +4335,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4924,10 +4346,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4935,10 +4357,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -4946,10 +4368,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4957,10 +4379,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -4968,10 +4390,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4979,10 +4401,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -4990,10 +4412,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -5001,10 +4423,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -5012,10 +4434,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -5023,10 +4445,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>465</v>
+        <v>417</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -5034,10 +4456,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -5045,10 +4467,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -5056,10 +4478,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -5067,10 +4489,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -5078,10 +4500,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>475</v>
+        <v>427</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -5089,10 +4511,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>476</v>
+        <v>428</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -5100,10 +4522,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -5111,10 +4533,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>481</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -5122,10 +4544,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -5133,10 +4555,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -5144,10 +4566,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>487</v>
+        <v>439</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -5155,10 +4577,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -5166,10 +4588,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -5177,10 +4599,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>493</v>
+        <v>445</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -5188,10 +4610,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>494</v>
+        <v>446</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -5199,10 +4621,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -5210,10 +4632,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>498</v>
+        <v>450</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>499</v>
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -5221,10 +4643,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>500</v>
+        <v>452</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>501</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -5232,10 +4654,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>503</v>
+        <v>455</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -5243,10 +4665,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>504</v>
+        <v>456</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -5254,10 +4676,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>507</v>
+        <v>459</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -5265,10 +4687,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>508</v>
+        <v>460</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>509</v>
+        <v>461</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -5276,10 +4698,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>510</v>
+        <v>462</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>511</v>
+        <v>463</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -5287,10 +4709,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>512</v>
+        <v>464</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>513</v>
+        <v>465</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -5298,10 +4720,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>514</v>
+        <v>466</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -5309,10 +4731,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>516</v>
+        <v>468</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>517</v>
+        <v>469</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -5320,10 +4742,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>519</v>
+        <v>471</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -5331,10 +4753,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>520</v>
+        <v>472</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>521</v>
+        <v>473</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -5342,10 +4764,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>522</v>
+        <v>474</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -5353,10 +4775,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>524</v>
+        <v>476</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -5364,10 +4786,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>526</v>
+        <v>478</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -5375,10 +4797,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>527</v>
+        <v>479</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -5386,10 +4808,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>529</v>
+        <v>481</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>530</v>
+        <v>482</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -5397,10 +4819,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>532</v>
+        <v>484</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -5408,10 +4830,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>533</v>
+        <v>485</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>534</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
